--- a/2_production_planning/Production_scheduling.xlsx
+++ b/2_production_planning/Production_scheduling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ns86s\repos\Supply-Chain-Design\2_production_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B1B227-71FD-4808-B561-F5D752BB8BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6338488-ECCA-49B0-9170-731A08BECFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{84C6757A-CA43-6146-8184-B981D3687BB0}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
